--- a/Data_preparation/datasets/final_data/MICRON_TECHNOLOGY_INC.xlsx
+++ b/Data_preparation/datasets/final_data/MICRON_TECHNOLOGY_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,99 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>TSEM</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>TWLO</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>PSTG</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>HUT</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>FRSH</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>CRWV</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -745,22 +652,22 @@
         <v>42068</v>
       </c>
       <c r="D2">
-        <v>59.79999923706055</v>
+        <v>30.33691260643213</v>
       </c>
       <c r="E2">
-        <v>55.56999969482422</v>
+        <v>26.48135185241699</v>
       </c>
       <c r="F2">
-        <v>63.40000152587891</v>
+        <v>30.74687096037362</v>
       </c>
       <c r="G2">
-        <v>47.5099983215332</v>
+        <v>24.9976947321133</v>
       </c>
       <c r="H2">
-        <v>50476952</v>
+        <v>1122466035</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>31543736645</v>
@@ -873,22 +780,22 @@
         <v>42159</v>
       </c>
       <c r="D3">
-        <v>100.2784223291463</v>
+        <v>27.29150121224098</v>
       </c>
       <c r="E3">
-        <v>101.7892532348633</v>
+        <v>18.38955307006836</v>
       </c>
       <c r="F3">
-        <v>103.7574213531293</v>
+        <v>27.84787460015424</v>
       </c>
       <c r="G3">
-        <v>99.89458829906675</v>
+        <v>18.10648580981008</v>
       </c>
       <c r="H3">
-        <v>112434397</v>
+        <v>1122466035</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>29185364132</v>
@@ -1001,22 +908,22 @@
         <v>42250</v>
       </c>
       <c r="D4">
-        <v>86.31787388722753</v>
+        <v>15.42223761823642</v>
       </c>
       <c r="E4">
-        <v>89.34918975830078</v>
+        <v>14.62184238433838</v>
       </c>
       <c r="F4">
-        <v>95.89880959486106</v>
+        <v>17.54035418130008</v>
       </c>
       <c r="G4">
-        <v>85.19480005732402</v>
+        <v>13.58718647031166</v>
       </c>
       <c r="H4">
-        <v>2168962480</v>
+        <v>1122466035</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>17974197069</v>
@@ -1129,22 +1036,22 @@
         <v>42341</v>
       </c>
       <c r="D5">
-        <v>38.08433107206315</v>
+        <v>15.79315258081134</v>
       </c>
       <c r="E5">
-        <v>38.63404083251953</v>
+        <v>13.82144832611084</v>
       </c>
       <c r="F5">
-        <v>39.66095853957086</v>
+        <v>16.23239241106418</v>
       </c>
       <c r="G5">
-        <v>36.56083826199426</v>
+        <v>13.18698955235952</v>
       </c>
       <c r="H5">
-        <v>5817000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>16948614679</v>
@@ -1257,22 +1164,22 @@
         <v>42432</v>
       </c>
       <c r="D6">
-        <v>3.269999980926514</v>
+        <v>10.51250162752612</v>
       </c>
       <c r="E6">
-        <v>3.407999992370605</v>
+        <v>10.2196741104126</v>
       </c>
       <c r="F6">
-        <v>3.447000026702881</v>
+        <v>11.99615962022932</v>
       </c>
       <c r="G6">
-        <v>3.058000087738037</v>
+        <v>9.770672165738008</v>
       </c>
       <c r="H6">
-        <v>594273308</v>
+        <v>1122466035</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>12231605014</v>
@@ -1373,22 +1280,22 @@
         <v>42523</v>
       </c>
       <c r="D7">
-        <v>46.6573290893411</v>
+        <v>12.30850783827647</v>
       </c>
       <c r="E7">
-        <v>45.52737426757812</v>
+        <v>13.4310131072998</v>
       </c>
       <c r="F7">
-        <v>47.1110922115669</v>
+        <v>13.82144915599394</v>
       </c>
       <c r="G7">
-        <v>42.74252842993778</v>
+        <v>11.30313431473435</v>
       </c>
       <c r="H7">
-        <v>7433166379</v>
+        <v>1122466035</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>13595635159</v>
@@ -1489,22 +1396,22 @@
         <v>42614</v>
       </c>
       <c r="D8">
-        <v>15.64999961853027</v>
+        <v>16.21287370312024</v>
       </c>
       <c r="E8">
-        <v>15.18000030517578</v>
+        <v>17.35490036010742</v>
       </c>
       <c r="F8">
-        <v>16.1299991607666</v>
+        <v>17.72581415748327</v>
       </c>
       <c r="G8">
-        <v>14.82999992370606</v>
+        <v>15.91028412285082</v>
       </c>
       <c r="H8">
-        <v>112123800</v>
+        <v>1122466035</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>17278818636</v>
@@ -1605,22 +1512,22 @@
         <v>42705</v>
       </c>
       <c r="D9">
-        <v>102.8199996948242</v>
+        <v>19.22899108639644</v>
       </c>
       <c r="E9">
-        <v>102.9499969482422</v>
+        <v>21.39591217041016</v>
       </c>
       <c r="F9">
-        <v>107.8000030517578</v>
+        <v>23.07478781427925</v>
       </c>
       <c r="G9">
-        <v>98</v>
+        <v>17.74533250153784</v>
       </c>
       <c r="H9">
-        <v>418600000</v>
+        <v>1122466035</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>19247604813</v>
@@ -1733,22 +1640,22 @@
         <v>42796</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>23.58235893247858</v>
       </c>
       <c r="E10">
-        <v>28.8700008392334</v>
+        <v>28.20903015136719</v>
       </c>
       <c r="F10">
-        <v>32.66999816894531</v>
+        <v>29.15583963381897</v>
       </c>
       <c r="G10">
-        <v>28.1200008392334</v>
+        <v>23.49451059159654</v>
       </c>
       <c r="H10">
-        <v>153433606</v>
+        <v>1122466035</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>27237970596</v>
@@ -1849,22 +1756,22 @@
         <v>42887</v>
       </c>
       <c r="D11">
-        <v>25.45000076293945</v>
+        <v>30.01479458315555</v>
       </c>
       <c r="E11">
-        <v>23.85000038146973</v>
+        <v>29.14607429504395</v>
       </c>
       <c r="F11">
-        <v>25.8799991607666</v>
+        <v>32.17195453598184</v>
       </c>
       <c r="G11">
-        <v>23.6200008392334</v>
+        <v>28.511613733158</v>
       </c>
       <c r="H11">
-        <v>112123800</v>
+        <v>1122466035</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>34030007103</v>
@@ -1965,22 +1872,22 @@
         <v>42978</v>
       </c>
       <c r="D12">
-        <v>109.5999984741211</v>
+        <v>31.36180099183131</v>
       </c>
       <c r="E12">
-        <v>105.3899993896484</v>
+        <v>38.38965606689453</v>
       </c>
       <c r="F12">
-        <v>110.9499969482422</v>
+        <v>38.41893760175387</v>
       </c>
       <c r="G12">
-        <v>98.45999908447266</v>
+        <v>30.89327595488031</v>
       </c>
       <c r="H12">
-        <v>217000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>35616684713</v>
@@ -2081,22 +1988,22 @@
         <v>43069</v>
       </c>
       <c r="D13">
-        <v>38.98032959138032</v>
+        <v>40.73227985625274</v>
       </c>
       <c r="E13">
-        <v>38.25197219848633</v>
+        <v>40.13686370849609</v>
       </c>
       <c r="F13">
-        <v>39.23481738528589</v>
+        <v>45.68106127743818</v>
       </c>
       <c r="G13">
-        <v>37.77809937580747</v>
+        <v>38.13587776205388</v>
       </c>
       <c r="H13">
-        <v>450687724</v>
+        <v>1122466035</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>48886488945</v>
@@ -2209,22 +2116,22 @@
         <v>43160</v>
       </c>
       <c r="D14">
-        <v>14.6870490774036</v>
+        <v>47.6039574709688</v>
       </c>
       <c r="E14">
-        <v>13.77598094940186</v>
+        <v>50.89338302612305</v>
       </c>
       <c r="F14">
-        <v>15.29573661579565</v>
+        <v>61.90368807271133</v>
       </c>
       <c r="G14">
-        <v>13.66995127527597</v>
+        <v>44.85138120932172</v>
       </c>
       <c r="H14">
-        <v>1319450062</v>
+        <v>1122466035</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>55063718967</v>
@@ -2337,22 +2244,22 @@
         <v>43251</v>
       </c>
       <c r="D15">
-        <v>19.5</v>
+        <v>57.40390869699602</v>
       </c>
       <c r="E15">
-        <v>21.10000038146973</v>
+        <v>51.18620681762695</v>
       </c>
       <c r="F15">
-        <v>24.07999992370605</v>
+        <v>61.05448667498412</v>
       </c>
       <c r="G15">
-        <v>19.32999992370605</v>
+        <v>50.55174994983859</v>
       </c>
       <c r="H15">
-        <v>150594095</v>
+        <v>1122466035</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>66790840377</v>
@@ -2465,22 +2372,22 @@
         <v>43342</v>
       </c>
       <c r="D16">
-        <v>366.4700012207031</v>
+        <v>50.89338671966009</v>
       </c>
       <c r="E16">
-        <v>374.1300048828125</v>
+        <v>44.14859771728516</v>
       </c>
       <c r="F16">
-        <v>383.2000122070313</v>
+        <v>51.04956113862351</v>
       </c>
       <c r="G16">
-        <v>335.8299865722656</v>
+        <v>39.70738418723946</v>
       </c>
       <c r="H16">
-        <v>424926346</v>
+        <v>1122466035</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>61191608681</v>
@@ -2593,22 +2500,22 @@
         <v>43433</v>
       </c>
       <c r="D17">
-        <v>28.30773105702722</v>
+        <v>39.23886123341484</v>
       </c>
       <c r="E17">
-        <v>24.80602836608887</v>
+        <v>30.97136878967285</v>
       </c>
       <c r="F17">
-        <v>28.33530415410917</v>
+        <v>39.27790576933023</v>
       </c>
       <c r="G17">
-        <v>23.41821403381436</v>
+        <v>27.71122451057614</v>
       </c>
       <c r="H17">
-        <v>174270076</v>
+        <v>1122466035</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>42999621266</v>
@@ -2721,22 +2628,22 @@
         <v>43524</v>
       </c>
       <c r="D18">
-        <v>117.4599990844727</v>
+        <v>40.64442847708811</v>
       </c>
       <c r="E18">
-        <v>122.5100021362305</v>
+        <v>40.34184265136719</v>
       </c>
       <c r="F18">
-        <v>123.5699996948242</v>
+        <v>43.15298203889217</v>
       </c>
       <c r="G18">
-        <v>112.5999984741211</v>
+        <v>35.69564742531968</v>
       </c>
       <c r="H18">
-        <v>61741703</v>
+        <v>1122466035</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>45828393552</v>
@@ -2849,22 +2756,22 @@
         <v>43615</v>
       </c>
       <c r="D19">
-        <v>27.72999954223633</v>
+        <v>32.162198281169</v>
       </c>
       <c r="E19">
-        <v>28.04000091552734</v>
+        <v>37.66735076904297</v>
       </c>
       <c r="F19">
-        <v>29.19000053405762</v>
+        <v>38.45798579704292</v>
       </c>
       <c r="G19">
-        <v>25.8700008392334</v>
+        <v>31.37156325316906</v>
       </c>
       <c r="H19">
-        <v>150594095</v>
+        <v>1122466035</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>36874811207</v>
@@ -2977,22 +2884,22 @@
         <v>43706</v>
       </c>
       <c r="D20">
-        <v>62.14997478545119</v>
+        <v>43.53365587510594</v>
       </c>
       <c r="E20">
-        <v>60.79552841186523</v>
+        <v>41.82549667358398</v>
       </c>
       <c r="F20">
-        <v>64.79523291027149</v>
+        <v>50.16131447064913</v>
       </c>
       <c r="G20">
-        <v>59.82286973629873</v>
+        <v>41.56195538773603</v>
       </c>
       <c r="H20">
-        <v>450687724</v>
+        <v>1122466035</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>49306896940</v>
@@ -3105,22 +3012,22 @@
         <v>43797</v>
       </c>
       <c r="D21">
-        <v>5.387734816364808</v>
+        <v>46.43265049048198</v>
       </c>
       <c r="E21">
-        <v>5.856666564941406</v>
+        <v>52.49417495727539</v>
       </c>
       <c r="F21">
-        <v>6.018701599842053</v>
+        <v>54.76846886851367</v>
       </c>
       <c r="G21">
-        <v>4.987251524861012</v>
+        <v>43.48485510187505</v>
       </c>
       <c r="H21">
-        <v>24347000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>53315567636</v>
@@ -3233,22 +3140,22 @@
         <v>43888</v>
       </c>
       <c r="D22">
-        <v>67.10666550667608</v>
+        <v>51.92804340327924</v>
       </c>
       <c r="E22">
-        <v>57.69954299926758</v>
+        <v>41.05438995361328</v>
       </c>
       <c r="F22">
-        <v>69.92720840862992</v>
+        <v>54.28042263041439</v>
       </c>
       <c r="G22">
-        <v>50.09797211347052</v>
+        <v>30.38571286432096</v>
       </c>
       <c r="H22">
-        <v>5817000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>56187984361</v>
@@ -3361,22 +3268,22 @@
         <v>43979</v>
       </c>
       <c r="D23">
-        <v>122.4000015258789</v>
+        <v>46.35456604500478</v>
       </c>
       <c r="E23">
-        <v>137.9409942626953</v>
+        <v>50.28821182250977</v>
       </c>
       <c r="F23">
-        <v>139.8000030517578</v>
+        <v>53.50931157353692</v>
       </c>
       <c r="G23">
-        <v>121.8564987182617</v>
+        <v>44.48046927491232</v>
       </c>
       <c r="H23">
-        <v>10664912097</v>
+        <v>1122466035</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>51683283699</v>
@@ -3489,22 +3396,22 @@
         <v>44077</v>
       </c>
       <c r="D24">
-        <v>274.3599853515625</v>
+        <v>44.44142400735296</v>
       </c>
       <c r="E24">
-        <v>247.0899963378907</v>
+        <v>45.83723449707031</v>
       </c>
       <c r="F24">
-        <v>283.3399963378906</v>
+        <v>50.9226679387302</v>
       </c>
       <c r="G24">
-        <v>216.229995727539</v>
+        <v>43.38724761686588</v>
       </c>
       <c r="H24">
-        <v>153433606</v>
+        <v>1122466035</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>51472559208</v>
@@ -3617,22 +3524,22 @@
         <v>44168</v>
       </c>
       <c r="D25">
-        <v>18.42000007629395</v>
+        <v>63.68995177893875</v>
       </c>
       <c r="E25">
-        <v>22.61000061035156</v>
+        <v>73.38253784179688</v>
       </c>
       <c r="F25">
-        <v>24.6299991607666</v>
+        <v>73.87058344929832</v>
       </c>
       <c r="G25">
-        <v>18.30999946594238</v>
+        <v>63.58258114952964</v>
       </c>
       <c r="H25">
-        <v>328636590</v>
+        <v>1122466035</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>77814203750</v>
@@ -3745,22 +3652,22 @@
         <v>44259</v>
       </c>
       <c r="D26">
-        <v>3.346999883651733</v>
+        <v>92.27964022851666</v>
       </c>
       <c r="E26">
-        <v>3.905999898910522</v>
+        <v>86.10098266601562</v>
       </c>
       <c r="F26">
-        <v>3.937000036239624</v>
+        <v>93.46070939617763</v>
       </c>
       <c r="G26">
-        <v>3.226000070571899</v>
+        <v>78.56555926521905</v>
       </c>
       <c r="H26">
-        <v>594273308</v>
+        <v>1122466035</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>94337566920</v>
@@ -3873,22 +3780,22 @@
         <v>44350</v>
       </c>
       <c r="D27">
-        <v>111.1426336345777</v>
+        <v>82.88963352534584</v>
       </c>
       <c r="E27">
-        <v>111.560432434082</v>
+        <v>82.94820404052734</v>
       </c>
       <c r="F27">
-        <v>113.268744525262</v>
+        <v>83.70955371504699</v>
       </c>
       <c r="G27">
-        <v>103.9937075101864</v>
+        <v>73.89983765462614</v>
       </c>
       <c r="H27">
-        <v>5186523104</v>
+        <v>1122466035</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>91989718469</v>
@@ -4001,22 +3908,22 @@
         <v>44441</v>
       </c>
       <c r="D28">
-        <v>685</v>
+        <v>72.54309213914239</v>
       </c>
       <c r="E28">
-        <v>676.0900268554688</v>
+        <v>69.28295135498047</v>
       </c>
       <c r="F28">
-        <v>736.1500244140625</v>
+        <v>74.06579191167461</v>
       </c>
       <c r="G28">
-        <v>647.52001953125</v>
+        <v>68.54112001454854</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>1122466035</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>83294505904</v>
@@ -4129,22 +4036,22 @@
         <v>44532</v>
       </c>
       <c r="D29">
-        <v>36.22999954223633</v>
+        <v>84.5987754367402</v>
       </c>
       <c r="E29">
-        <v>39.68000030517578</v>
+        <v>91.04998016357422</v>
       </c>
       <c r="F29">
-        <v>40.45000076293945</v>
+        <v>94.56881842753882</v>
       </c>
       <c r="G29">
-        <v>35.68000030517578</v>
+        <v>78.71448922510851</v>
       </c>
       <c r="H29">
-        <v>112123800</v>
+        <v>1122466035</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>92711535405</v>
@@ -4257,22 +4164,22 @@
         <v>44623</v>
       </c>
       <c r="D30">
-        <v>250.3158557561157</v>
+        <v>86.6557386399152</v>
       </c>
       <c r="E30">
-        <v>262.9649963378906</v>
+        <v>76.21517181396484</v>
       </c>
       <c r="F30">
-        <v>270.8061538353162</v>
+        <v>92.04726210632737</v>
       </c>
       <c r="G30">
-        <v>237.4413499228369</v>
+        <v>66.87051744091137</v>
       </c>
       <c r="H30">
-        <v>112434397</v>
+        <v>1122466035</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>99861722670</v>
@@ -4385,22 +4292,22 @@
         <v>44714</v>
       </c>
       <c r="D31">
-        <v>12.85000038146973</v>
+        <v>72.99769448193815</v>
       </c>
       <c r="E31">
-        <v>6.650000095367432</v>
+        <v>54.16526794433594</v>
       </c>
       <c r="F31">
-        <v>13.32499980926514</v>
+        <v>73.88934776118789</v>
       </c>
       <c r="G31">
-        <v>6.449999809265137</v>
+        <v>52.51914513887574</v>
       </c>
       <c r="H31">
-        <v>105527928</v>
+        <v>1122466035</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>84163181012</v>
@@ -4513,22 +4420,22 @@
         <v>44805</v>
       </c>
       <c r="D32">
-        <v>300.4705670979449</v>
+        <v>54.25166662973074</v>
       </c>
       <c r="E32">
-        <v>282.829833984375</v>
+        <v>49.18582153320312</v>
       </c>
       <c r="F32">
-        <v>303.3031069853</v>
+        <v>57.72707298824477</v>
       </c>
       <c r="G32">
-        <v>272.0392030418694</v>
+        <v>47.56593140497698</v>
       </c>
       <c r="H32">
-        <v>60498713</v>
+        <v>1122466035</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>63221246139</v>
@@ -4641,22 +4548,22 @@
         <v>44896</v>
       </c>
       <c r="D33">
-        <v>14.77999973297119</v>
+        <v>56.89458457788772</v>
       </c>
       <c r="E33">
-        <v>14.71000003814697</v>
+        <v>49.17155838012695</v>
       </c>
       <c r="F33">
-        <v>16.84000015258789</v>
+        <v>56.98312519859834</v>
       </c>
       <c r="G33">
-        <v>13.41800022125244</v>
+        <v>47.64663083566254</v>
       </c>
       <c r="H33">
-        <v>237933261</v>
+        <v>1122466035</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>60326984726</v>
@@ -4757,22 +4664,22 @@
         <v>44987</v>
       </c>
       <c r="D34">
-        <v>43.27593590060003</v>
+        <v>57.05363228909533</v>
       </c>
       <c r="E34">
-        <v>42.03487777709961</v>
+        <v>59.49906921386719</v>
       </c>
       <c r="F34">
-        <v>43.83488530108514</v>
+        <v>63.52220616702942</v>
       </c>
       <c r="G34">
-        <v>38.0180241311862</v>
+        <v>52.02470639572557</v>
       </c>
       <c r="H34">
-        <v>457000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>61575092829</v>
@@ -4873,22 +4780,22 @@
         <v>45078</v>
       </c>
       <c r="D35">
-        <v>10.5</v>
+        <v>68.11659737517797</v>
       </c>
       <c r="E35">
-        <v>16.5</v>
+        <v>62.35622787475586</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>69.70736847273221</v>
       </c>
       <c r="G35">
-        <v>9.449999809265137</v>
+        <v>62.14873697571887</v>
       </c>
       <c r="H35">
-        <v>105527928</v>
+        <v>1122466035</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>75611705918</v>
@@ -4989,22 +4896,22 @@
         <v>45169</v>
       </c>
       <c r="D36">
-        <v>246.5399932861328</v>
+        <v>69.50194864796406</v>
       </c>
       <c r="E36">
-        <v>214.8500061035156</v>
+        <v>67.34393310546875</v>
       </c>
       <c r="F36">
-        <v>252.7200012207031</v>
+        <v>71.58076915803932</v>
       </c>
       <c r="G36">
-        <v>202.6499938964844</v>
+        <v>63.18629208531823</v>
       </c>
       <c r="H36">
-        <v>217000000</v>
+        <v>1122466035</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>76605394464</v>
@@ -5105,22 +5012,22 @@
         <v>45260</v>
       </c>
       <c r="D37">
-        <v>37.65000152587891</v>
+        <v>75.36900213108902</v>
       </c>
       <c r="E37">
-        <v>39.84999847412109</v>
+        <v>84.62031555175781</v>
       </c>
       <c r="F37">
-        <v>44.56999969482422</v>
+        <v>87.12898616153591</v>
       </c>
       <c r="G37">
-        <v>35.79000091552734</v>
+        <v>72.3149742657501</v>
       </c>
       <c r="H37">
-        <v>307636373</v>
+        <v>1122466035</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>83582383933</v>
@@ -5221,22 +5128,22 @@
         <v>45351</v>
       </c>
       <c r="D38">
-        <v>140</v>
+        <v>91.26686502536674</v>
       </c>
       <c r="E38">
-        <v>137.4799957275391</v>
+        <v>117.0523376464844</v>
       </c>
       <c r="F38">
-        <v>146.2100067138672</v>
+        <v>121.589865427402</v>
       </c>
       <c r="G38">
-        <v>133.8500061035156</v>
+        <v>89.65838070587886</v>
       </c>
       <c r="H38">
-        <v>55686229</v>
+        <v>1122466035</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>100025183617</v>
@@ -5337,22 +5244,22 @@
         <v>45442</v>
       </c>
       <c r="D39">
-        <v>177</v>
+        <v>127.3423872552479</v>
       </c>
       <c r="E39">
-        <v>181.6699981689453</v>
+        <v>130.7214813232422</v>
       </c>
       <c r="F39">
-        <v>184.479995727539</v>
+        <v>156.5715918888797</v>
       </c>
       <c r="G39">
-        <v>168.1799926757812</v>
+        <v>124.3807020368039</v>
       </c>
       <c r="H39">
-        <v>119792704</v>
+        <v>1122466035</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>139849518612</v>
@@ -5453,22 +5360,22 @@
         <v>45533</v>
       </c>
       <c r="D40">
-        <v>164.9700012207031</v>
+        <v>93.1358344632099</v>
       </c>
       <c r="E40">
-        <v>167.1699981689453</v>
+        <v>103.1626358032227</v>
       </c>
       <c r="F40">
-        <v>172.4499969482422</v>
+        <v>114.1941086644024</v>
       </c>
       <c r="G40">
-        <v>150.3899993896484</v>
+        <v>83.67603204820584</v>
       </c>
       <c r="H40">
-        <v>55686229</v>
+        <v>1122466035</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>105971965526</v>
@@ -5569,22 +5476,22 @@
         <v>45624</v>
       </c>
       <c r="D41">
-        <v>198.6999969482422</v>
+        <v>97.19420405710279</v>
       </c>
       <c r="E41">
-        <v>183.8699951171875</v>
+        <v>83.81008911132812</v>
       </c>
       <c r="F41">
-        <v>203.0899963378907</v>
+        <v>111.5741688708035</v>
       </c>
       <c r="G41">
-        <v>181.4400024414062</v>
+        <v>83.19266416860913</v>
       </c>
       <c r="H41">
-        <v>119792704</v>
+        <v>1122466035</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>108878531372</v>
@@ -5685,22 +5592,22 @@
         <v>45715</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>95.53560323537886</v>
       </c>
       <c r="E42">
-        <v>37.08000183105469</v>
+        <v>86.64115142822266</v>
       </c>
       <c r="F42">
-        <v>41.93999862670898</v>
+        <v>104.3901762948738</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>83.85914091487142</v>
       </c>
       <c r="H42">
-        <v>380162985</v>
+        <v>1122466035</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>102303266796</v>
@@ -5813,22 +5720,22 @@
         <v>45806</v>
       </c>
       <c r="D43">
-        <v>40.0099983215332</v>
+        <v>94.43191964812596</v>
       </c>
       <c r="E43">
-        <v>42.97000122070312</v>
+        <v>123.0570297241211</v>
       </c>
       <c r="F43">
-        <v>44.09999847412109</v>
+        <v>129.6467023185203</v>
       </c>
       <c r="G43">
-        <v>35.92699813842773</v>
+        <v>94.25220116614328</v>
       </c>
       <c r="H43">
-        <v>323054568</v>
+        <v>1122466035</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>108180923620</v>
@@ -5941,22 +5848,22 @@
         <v>45897</v>
       </c>
       <c r="D44">
-        <v>3.75</v>
+        <v>115.7874869680729</v>
       </c>
       <c r="E44">
-        <v>4.880000114440918</v>
+        <v>167.2152862548828</v>
       </c>
       <c r="F44">
-        <v>5.070000171661377</v>
+        <v>170.3433169030152</v>
       </c>
       <c r="G44">
-        <v>3.690000057220459</v>
+        <v>114.1784940135793</v>
       </c>
       <c r="H44">
-        <v>590361084</v>
+        <v>1122466035</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>136533262322</v>
